--- a/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
+++ b/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKreta2SDS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774FCE0C-0801-48C0-A483-E9749E0999F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3DBF5-971A-4469-97B8-B3E57D2E7FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="törzsadat" sheetId="4" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
   <si>
     <t>AlternateEmailAddresses</t>
   </si>
@@ -236,9 +236,6 @@
     <t>oktatási azonosító</t>
   </si>
   <si>
-    <t>Iskola OM azonosítója:</t>
-  </si>
-  <si>
     <t>012345</t>
   </si>
   <si>
@@ -246,13 +243,85 @@
   </si>
   <si>
     <t>"xxupn";$x=Get-AzureADUser -ObjectID "xxupn";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_xxid";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "xxid";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "xxschid";</t>
+  </si>
+  <si>
+    <t>1) Add meg az iskola OM azonosítóját!</t>
+  </si>
+  <si>
+    <t>2) Töltsd le az Office 365 környezet minden felhasználóját az Admin Portal-ról .CSV-be.</t>
+  </si>
+  <si>
+    <t>3) A .CSV tartalmát másold a users_2020… lapra felülírva a példaadatokat.</t>
+  </si>
+  <si>
+    <t>4) A users_... lap AG oszlopába írd be minden, Krétával szinkronizálni szánt felhasználónál a Kréta szerinti oktatási azonosítóikat.</t>
+  </si>
+  <si>
+    <t>5) Másold végig az AH oszlopban lévő képletet minden sorra.</t>
+  </si>
+  <si>
+    <t>6) Töröld a fölösleges sorokat, akiknél nem írtál be oktatási azonosítót az AG oszlopba.</t>
+  </si>
+  <si>
+    <t>7) Nyiss egy powershell-t!</t>
+  </si>
+  <si>
+    <t>8) Connect-AzureAD -val kapcsolódj az Office 365 környezethez Global Admin felhasználóval.</t>
+  </si>
+  <si>
+    <t>9) Másold ki az AH oszlopban keletkezett powershell utasításokat a powershell ablakba és futtasd le. Fokozatosan is csinálhatod.</t>
+  </si>
+  <si>
+    <t>(Get-AzureADUser -ObjectID "nev@probavarsuli.hu").ExtensionProperty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Key                                                                       Value                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">---                                                                       -----                                                                                          </t>
+  </si>
+  <si>
+    <t>odata.metadata                                                            https://graph.windows.net/c8371c18-963b-48b8-a3f2-ce86930a9859/$metadata#directoryObjects/@E...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">odata.type                                                                Microsoft.DirectoryServices.User                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">createdDateTime                                                           2020. 03. 13. 10:08:54                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">employeeId                                                                                                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">onPremisesDistinguishedName                                                                                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">userIdentities                                                            []                                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource           SIS                                                                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType           Teacher           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10) Sikeres volt a gyakorlat, ha a felhasználókon a következő parancs az alábbihoz hasonló eredményt ad. Kizöldítve, amit keresünk. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId  012345                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId 73166639108                                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId             Teacher_73166639108                                                                            </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -277,6 +346,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Courier New"/>
+      <family val="3"/>
       <charset val="238"/>
     </font>
   </fonts>
@@ -307,7 +382,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -317,6 +392,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,39 +710,175 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC59F491-961B-481C-91DC-194EC6C64027}">
-  <dimension ref="A2:C31"/>
+  <dimension ref="A2:C79"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="5" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="4" t="s">
+    <row r="79" spans="3:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="C79" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" ht="180" x14ac:dyDescent="0.25">
-      <c r="C31" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -672,9 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C1FDCE-AB07-43C0-8BC0-F64D8E416B6A}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -837,7 +1049,7 @@
         <v>73147779108</v>
       </c>
       <c r="AH2" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$31,"xxupn",AE2),"xxid",AG2),"xxschid",törzsadat!$B$2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE2),"xxid",AG2),"xxschid",törzsadat!$B$2)</f>
         <v>"veresmonika@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "veresmonika@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_73147779108";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "73147779108";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
@@ -888,7 +1100,7 @@
         <v>71888225024</v>
       </c>
       <c r="AH3" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$31,"xxupn",AE3),"xxid",AG3),"xxschid",törzsadat!$B$2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE3),"xxid",AG3),"xxschid",törzsadat!$B$2)</f>
         <v>"szeparnold@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "szeparnold@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_71888225024";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "71888225024";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
@@ -939,7 +1151,7 @@
         <v>72909399973</v>
       </c>
       <c r="AH4" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$31,"xxupn",AE4),"xxid",AG4),"xxschid",törzsadat!$B$2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE4),"xxid",AG4),"xxschid",törzsadat!$B$2)</f>
         <v>"nadoriildiko@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "nadoriildiko@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_72909399973";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "72909399973";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
@@ -990,7 +1202,7 @@
         <v>71644410787</v>
       </c>
       <c r="AH5" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$31,"xxupn",AE5),"xxid",AG5),"xxschid",törzsadat!$B$2)</f>
+        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE5),"xxid",AG5),"xxschid",törzsadat!$B$2)</f>
         <v>"dancsabela@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "dancsabela@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>

--- a/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
+++ b/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eKreta2SDS\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marto\eKreta2SDS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C3DBF5-971A-4469-97B8-B3E57D2E7FD4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC9ED0-AA6B-4BAD-BA74-E0EC3D96BE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="3360" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="törzsadat" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="96">
   <si>
     <t>AlternateEmailAddresses</t>
   </si>
@@ -315,16 +317,30 @@
   </si>
   <si>
     <t xml:space="preserve">extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId             Teacher_73166639108                                                                            </t>
+  </si>
+  <si>
+    <t>"xxupn";$x=Get-AzureADUser -ObjectID "xxupn";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Student";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Student_xxid";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_StudentId" -ExtensionValue "xxid";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "xxschid";</t>
+  </si>
+  <si>
+    <t>diak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -380,24 +396,28 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{8A08F789-48D6-4135-A839-1AF5C232A649}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,7 +434,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -710,20 +730,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC59F491-961B-481C-91DC-194EC6C64027}">
-  <dimension ref="A2:C79"/>
+  <dimension ref="A2:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="43.140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="85.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" customWidth="1"/>
+    <col min="3" max="3" width="85.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>70</v>
       </c>
@@ -731,149 +751,154 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="3.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C78" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="3:3" ht="180" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" ht="159.5" x14ac:dyDescent="0.35">
       <c r="C79" s="6" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="3:3" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C80" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -886,21 +911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C1FDCE-AB07-43C0-8BC0-F64D8E416B6A}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.1796875" style="1"/>
     <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="30" width="9.140625" style="1"/>
-    <col min="31" max="31" width="29.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="118.28515625" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="30" width="9.1796875" style="1"/>
+    <col min="31" max="31" width="29.7265625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="19.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="118.26953125" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1002,7 +1029,7 @@
       </c>
       <c r="AH1" s="6"/>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="b">
         <v>0</v>
       </c>
@@ -1049,11 +1076,11 @@
         <v>73147779108</v>
       </c>
       <c r="AH2" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE2),"xxid",AG2),"xxschid",törzsadat!$B$2)</f>
+        <f>IF(E2="tanar",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE2),"xxid",AG2),"xxschid",törzsadat!$B$2),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$80,"xxupn",AE2),"xxid",AG2),"xxschid",törzsadat!$B$2))</f>
         <v>"veresmonika@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "veresmonika@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_73147779108";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "73147779108";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="b">
         <v>0</v>
       </c>
@@ -1100,11 +1127,11 @@
         <v>71888225024</v>
       </c>
       <c r="AH3" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE3),"xxid",AG3),"xxschid",törzsadat!$B$2)</f>
+        <f>IF(E3="tanar",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE3),"xxid",AG3),"xxschid",törzsadat!$B$2),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$80,"xxupn",AE3),"xxid",AG3),"xxschid",törzsadat!$B$2))</f>
         <v>"szeparnold@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "szeparnold@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_71888225024";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "71888225024";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="b">
         <v>0</v>
       </c>
@@ -1151,16 +1178,16 @@
         <v>72909399973</v>
       </c>
       <c r="AH4" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE4),"xxid",AG4),"xxschid",törzsadat!$B$2)</f>
+        <f>IF(E4="tanar",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE4),"xxid",AG4),"xxschid",törzsadat!$B$2),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$80,"xxupn",AE4),"xxid",AG4),"xxschid",törzsadat!$B$2))</f>
         <v>"nadoriildiko@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "nadoriildiko@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_72909399973";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "72909399973";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>32</v>
+      <c r="E5" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>63</v>
@@ -1202,8 +1229,8 @@
         <v>71644410787</v>
       </c>
       <c r="AH5" s="2" t="str">
-        <f>SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE5),"xxid",AG5),"xxschid",törzsadat!$B$2)</f>
-        <v>"dancsabela@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "dancsabela@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Teacher";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Teacher_71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_TeacherId" -ExtensionValue "71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
+        <f>IF(E5="tanar",SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$79,"xxupn",AE5),"xxid",AG5),"xxschid",törzsadat!$B$2),SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(törzsadat!$C$80,"xxupn",AE5),"xxid",AG5),"xxschid",törzsadat!$B$2))</f>
+        <v>"dancsabela@probavarsuli.hu";$x=Get-AzureADUser -ObjectID "dancsabela@probavarsuli.hu";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_ObjectType" -ExtensionValue "Student";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_AnchorId" -ExtensionValue "Student_71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource" -ExtensionValue "SIS";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_StudentId" -ExtensionValue "71644410787";Set-AzureADUserExtension -ObjectId $x.objectid -ExtensionName "extension_fe2174665583431c953114ff7268b7b3_Education_SyncSource_SchoolId" -ExtensionValue "012345";</v>
       </c>
     </row>
   </sheetData>

--- a/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
+++ b/eKreta2SDS/doc/meglévő felhasználók javítása-példa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marto\eKreta2SDS\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4EC9ED0-AA6B-4BAD-BA74-E0EC3D96BE1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D8FA86-8912-437E-A7D6-2033A41459CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="3360" windowWidth="24240" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="törzsadat" sheetId="4" r:id="rId1"/>
@@ -732,8 +732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC59F491-961B-481C-91DC-194EC6C64027}">
   <dimension ref="A2:C80"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -911,7 +911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C1FDCE-AB07-43C0-8BC0-F64D8E416B6A}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AD1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
